--- a/#node教程/对象/code/koa实例/@2request-response/@.xlsx
+++ b/#node教程/对象/code/koa实例/@2request-response/@.xlsx
@@ -604,7 +604,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -617,6 +616,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -676,7 +676,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="819150" y="3400425"/>
+          <a:off x="819150" y="3457575"/>
           <a:ext cx="5586196" cy="6324600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -790,7 +790,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13030200" y="4048125"/>
+          <a:off x="13030200" y="3800475"/>
           <a:ext cx="7742857" cy="1361905"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1093,7 +1093,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1109,7 +1109,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1122,18 +1122,18 @@
       <c r="E1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>37</v>
       </c>
       <c r="G1" s="16"/>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>38</v>
       </c>
       <c r="I1" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="84" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>28</v>
       </c>
@@ -1152,7 +1152,7 @@
       <c r="F2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="10" t="s">
         <v>41</v>
       </c>
       <c r="I2" s="6" t="s">
@@ -1178,7 +1178,8 @@
       <c r="F3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="11"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="12"/>
     </row>
     <row r="4" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
@@ -1199,7 +1200,8 @@
       <c r="F4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="12"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="12"/>
     </row>
     <row r="5" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
@@ -1220,7 +1222,8 @@
       <c r="F5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="12"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:9" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
@@ -1241,7 +1244,8 @@
       <c r="F6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="12"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
@@ -1260,7 +1264,8 @@
       <c r="F7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="12"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:9" ht="409.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
@@ -1268,16 +1273,16 @@
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
-      <c r="F8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
+      <c r="F8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="H2:H7"/>
+    <mergeCell ref="H8:I8"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A8:E8"/>
     <mergeCell ref="G1:G1048576"/>
+    <mergeCell ref="A8:F8"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
